--- a/biology/Médecine/Mauro_Ruscóni/Mauro_Ruscóni.xlsx
+++ b/biology/Médecine/Mauro_Ruscóni/Mauro_Ruscóni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mauro_Rusc%C3%B3ni</t>
+          <t>Mauro_Ruscóni</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mauro Ruscóni (né à Pavie le 18 novembre 1776 et mort à Cadenabbia [Note 1] le 27 mars 1849) est un médecin et zoologiste italien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mauro_Rusc%C3%B3ni</t>
+          <t>Mauro_Ruscóni</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est en 1811 répétiteur en médecine à l'Université de Pavie puis docteur en médecine de cette Université[1]. Il part en 1812 continuer ses études à l'Université de Paris[2],[3].
-Il est l'auteur de recherches en embryologie animale et en anatomie comparée sur la reproduction des tritons et sur le développement de la grenouille : il fut le premier à observer et à rendre compte exactement de la segmentation de l'œuf ainsi que de la formation de la morula et du sillon dorsal falciforme[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est en 1811 répétiteur en médecine à l'Université de Pavie puis docteur en médecine de cette Université. Il part en 1812 continuer ses études à l'Université de Paris,.
+Il est l'auteur de recherches en embryologie animale et en anatomie comparée sur la reproduction des tritons et sur le développement de la grenouille : il fut le premier à observer et à rendre compte exactement de la segmentation de l'œuf ainsi que de la formation de la morula et du sillon dorsal falciforme.
 Une rue porte son nom à Pavie de la via Felice Cavallotti à la via Siro Comi.
 </t>
         </is>
